--- a/data/survey_images.xlsx
+++ b/data/survey_images.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,9 +426,31 @@
         <v>Like</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>7ba0664f-2dbb-4478-a4e2-ecf036a093ef</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>7ba0664f-2dbb-4478-a4e2-ecf036a093ef</v>
+      </c>
+      <c r="B4" s="1">
+        <v>61</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Like</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/survey_images.xlsx
+++ b/data/survey_images.xlsx
@@ -417,7 +417,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>79df3c11-89e3-41b8-b404-c856b173d2e5</v>
+        <v>985bad01-57bd-4504-a978-a951079ffbb3</v>
       </c>
       <c r="B2" s="1">
         <v>61</v>
@@ -428,10 +428,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>7ba0664f-2dbb-4478-a4e2-ecf036a093ef</v>
+        <v>d42d52c3-f891-4cdc-ad58-bd1362ae0988</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C3" t="str">
         <v>Like</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>7ba0664f-2dbb-4478-a4e2-ecf036a093ef</v>
+        <v>fd91c844-a3dc-408e-a577-17376e889a53</v>
       </c>
       <c r="B4" s="1">
         <v>61</v>

--- a/data/survey_images.xlsx
+++ b/data/survey_images.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +448,724 @@
         <v>Like</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B41" s="1">
+        <v>37</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B42" s="1">
+        <v>38</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B52" s="1">
+        <v>49</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B55" s="1">
+        <v>52</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B56" s="1">
+        <v>53</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B57" s="1">
+        <v>54</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Dislike</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B58" s="1">
+        <v>55</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B59" s="1">
+        <v>56</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B60" s="1">
+        <v>57</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B61" s="1">
+        <v>58</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B62" s="1">
+        <v>59</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Neutral</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B64" s="1">
+        <v>61</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>3d96bf6f-f72d-4e06-aa32-84d6ed57e404</v>
+      </c>
+      <c r="B65" s="1">
+        <v>62</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>3d96bf6f-f72d-4e06-aa32-84d6ed57e404</v>
+      </c>
+      <c r="B66" s="1">
+        <v>137</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>3d96bf6f-f72d-4e06-aa32-84d6ed57e404</v>
+      </c>
+      <c r="B67" s="1">
+        <v>138</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>3d96bf6f-f72d-4e06-aa32-84d6ed57e404</v>
+      </c>
+      <c r="B68" s="1">
+        <v>140</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Like</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>a69404a2-81ee-4987-a1e9-05ea03d6a52c</v>
+      </c>
+      <c r="B69" s="1">
+        <v>61</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Like</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C69"/>
   </ignoredErrors>
 </worksheet>
 </file>